--- a/data_entry.xlsx
+++ b/data_entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wfp-my.sharepoint.com/personal/clinton_tedja_wfp_org/Documents/Documents (OneDrive)/Data/Regional_level/regional_food_crisis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="8_{80298F4B-661C-4D58-9B00-521624DC00BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CD844E1-4386-46E5-A3AF-F8969892172C}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="8_{80298F4B-661C-4D58-9B00-521624DC00BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{818ACB8C-700B-4642-914E-1963CAC691A2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB09B971-1284-4FAD-B6D9-A136C8BAFC06}"/>
+    <workbookView xWindow="-15285" yWindow="-2370" windowWidth="15330" windowHeight="10260" xr2:uid="{FB09B971-1284-4FAD-B6D9-A136C8BAFC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -721,9 +721,6 @@
     <t>https://docs.wfp.org/api/documents/WFP-0000129543/download/</t>
   </si>
   <si>
-    <t>New round data collection to start by mid -August. Report on May round under final clearance process.</t>
-  </si>
-  <si>
     <t>1) Earthquake assessments; and 
 &lt;br&gt;&lt;br&gt;
 2) Monthly mVAM GeoPoll</t>
@@ -757,9 +754,6 @@
 2) Monthly Market Monitor- upcoming data collection for July Market monitor, with planned release in mid August</t>
   </si>
   <si>
-    <t>Ongoing data collection for 5 countries (Fiji, Samoa, Vanuatu, Tonga and Kiribati) via mVAM. Data colleciton is underway for Q2 2022</t>
-  </si>
-  <si>
     <t>https://docs.wfp.org/api/documents/WFP-0000140931/download/</t>
   </si>
   <si>
@@ -787,11 +781,6 @@
   </si>
   <si>
     <t>https://docs.wfp.org/api/documents/WFP-0000141184/download/</t>
-  </si>
-  <si>
-    <t>1. Food Security Assessment is planned to be conducted in August;
-&lt;br&gt;&lt;br&gt;
-2. IPC planned for November</t>
   </si>
   <si>
     <t>Macro-impacts of the war in Ukraine on Timor-Leste</t>
@@ -997,6 +986,17 @@
     <t xml:space="preserve">At the beginning of the global pandemic in early 2020, WFP started to support the Government in monitoring daily market prices on staple food commodities and nationwide fuel coverage; this included successfully introducing standardized questionnaires and collection methodology. Currently, MAF’s food security focal points in 13 municipalities monitor the prices of 16 food items.
 &lt;br&gt;&lt;br&gt;
 WFP is continuing this price monitoring, to capture the effects of the war in Ukraine on escalating commodity prices, including food items, and the impact of supply chain challenges in Timor-Leste due to the palm oil export ban from Indonesia. WFP provided price monitoring data capturing the price spike of cooking oil and fuel to the relevant line ministries and partners. WFP is keeping a closer look at the prices to ensure that inflation won’t disrupt family spending and the affordability of essential goods. Considering the high level of global uncertainty, including the ongoing crisis in Ukraine, WFP together with the Government of Timor-Leste, will continue to monitor food and non-food item prices to respond to food security needs in the country. </t>
+  </si>
+  <si>
+    <t>1. Face to face Food Security Assessment is planned to be conducted in August (7,000 households);
+&lt;br&gt;&lt;br&gt;
+2. IPC planned for November</t>
+  </si>
+  <si>
+    <t>Ongoing data collection for 5 countries (Fiji, Samoa, Vanuatu, Tonga and Kiribati) via mVAM. Data collection is underway for Q2 2022</t>
+  </si>
+  <si>
+    <t>New round data collection to start by mid-August. Report on May round under final clearance process.</t>
   </si>
 </sst>
 </file>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFCFF2A-046F-4608-BFE1-4D01CFFCDD5B}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1477,10 +1477,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -1510,7 +1510,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>165</v>
@@ -1530,13 +1530,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>99</v>
@@ -1583,13 +1583,13 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>96</v>
@@ -1622,10 +1622,10 @@
         <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>99</v>
@@ -1652,7 +1652,7 @@
         <v>114</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>172</v>
@@ -1669,13 +1669,13 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1704,13 +1704,13 @@
         <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
@@ -1739,13 +1739,13 @@
         <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
@@ -1782,13 +1782,13 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>99</v>
@@ -1811,7 +1811,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>165</v>
@@ -1831,13 +1831,13 @@
         <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>17</v>
@@ -1860,7 +1860,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>168</v>
@@ -1880,7 +1880,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>54</v>
@@ -1909,7 +1909,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>165</v>
@@ -1929,19 +1929,19 @@
         <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H12" s="2">
         <v>2021</v>
@@ -1958,7 +1958,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>178</v>
@@ -1975,13 +1975,13 @@
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2000,7 +2000,7 @@
         <v>147</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>168</v>
@@ -2020,19 +2020,19 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H14" s="2">
         <v>2019</v>
@@ -2041,19 +2041,19 @@
         <v>64</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>165</v>
@@ -2073,10 +2073,10 @@
         <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>143</v>
@@ -2085,7 +2085,7 @@
         <v>99</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H15" s="2">
         <v>2019</v>
@@ -2102,7 +2102,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>181</v>
@@ -2119,10 +2119,10 @@
         <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>151</v>
@@ -2152,7 +2152,7 @@
         <v>75</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>165</v>
@@ -2172,10 +2172,10 @@
         <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>78</v>
@@ -2184,7 +2184,7 @@
         <v>202</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H17" s="2">
         <v>2020</v>
@@ -2205,7 +2205,7 @@
         <v>155</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>165</v>
@@ -2225,13 +2225,13 @@
         <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>99</v>
@@ -2246,7 +2246,7 @@
         <v>83</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>160</v>
@@ -2254,7 +2254,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>184</v>

--- a/data_entry.xlsx
+++ b/data_entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wfp-my.sharepoint.com/personal/clinton_tedja_wfp_org/Documents/Documents (OneDrive)/Data/Regional_level/regional_food_crisis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="8_{80298F4B-661C-4D58-9B00-521624DC00BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{818ACB8C-700B-4642-914E-1963CAC691A2}"/>
+  <xr:revisionPtr revIDLastSave="451" documentId="8_{80298F4B-661C-4D58-9B00-521624DC00BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D8A2E06-ED35-4BF5-AA48-A65AE0B023C8}"/>
   <bookViews>
-    <workbookView xWindow="-15285" yWindow="-2370" windowWidth="15330" windowHeight="10260" xr2:uid="{FB09B971-1284-4FAD-B6D9-A136C8BAFC06}"/>
+    <workbookView xWindow="-15135" yWindow="-900" windowWidth="13650" windowHeight="16545" xr2:uid="{FB09B971-1284-4FAD-B6D9-A136C8BAFC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1403,7 +1403,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2084,7 +2084,7 @@
       <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>224</v>
       </c>
       <c r="H15" s="2">
@@ -2128,9 +2128,9 @@
         <v>151</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H16" s="2">
@@ -2290,9 +2290,11 @@
     <hyperlink ref="M14" r:id="rId23" xr:uid="{7F71ADAA-0D73-4F83-868D-AF2819824048}"/>
     <hyperlink ref="K15" r:id="rId24" display="https://wfp.sharepoint.com/sites/RBBVAMUnit/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2FRBBVAMUnit%2FShared%20Documents%2FGeneral%2FUkraine%2FRBB%2FPhilippines%2FFSAC%5FPhillipines%5FFood%20Security%20Situation%5F23%20May%202022%5FUpdate%203%2Epdf&amp;parent=%2Fsites%2FRBBVAMUnit%2FShared%20Documents%2FGeneral%2FUkraine%2FRBB%2FPhilippines&amp;p=true&amp;ga=1" xr:uid="{B5796AAE-4304-4FD2-9767-083E303ECE17}"/>
     <hyperlink ref="K17" r:id="rId25" xr:uid="{E3E1B4CD-93F6-4C97-BCE6-F785BA68D1BD}"/>
+    <hyperlink ref="G15" r:id="rId26" xr:uid="{E49736EC-C81C-48BA-AACC-4E6CA255F218}"/>
+    <hyperlink ref="G16" r:id="rId27" xr:uid="{B03BBD9A-1CCA-47C5-BE6D-A9A13FA42471}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId28"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
